--- a/demo/com.incquerylabs.smarthome.demorules.homeio/src/main/resources/ruletemplates/motion-template-data.xlsx
+++ b/demo/com.incquerylabs.smarthome.demorules.homeio/src/main/resources/ruletemplates/motion-template-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dandrid\smarthome-cep-demonstrator\runtime\com.incquerylabs.smarthome.droolsbundle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dandrid\smarthome-cep-demonstrator\demo\com.incquerylabs.smarthome.demorules.homeio\src\main\resources\ruletemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>B_Motion_Detector</t>
   </si>
@@ -66,6 +66,33 @@
   </si>
   <si>
     <t>F_Lights_2_Analog</t>
+  </si>
+  <si>
+    <t>Brightness sensor</t>
+  </si>
+  <si>
+    <t>A_Brightness_Sensor</t>
+  </si>
+  <si>
+    <t>B_Brightness_Sensor</t>
+  </si>
+  <si>
+    <t>D_Brightness_Sensor</t>
+  </si>
+  <si>
+    <t>E_Brightness_Sensor</t>
+  </si>
+  <si>
+    <t>F_Brightness_Sensor</t>
+  </si>
+  <si>
+    <t>G_Brightness_Sensor</t>
+  </si>
+  <si>
+    <t>D_Lights_2_Analog</t>
+  </si>
+  <si>
+    <t>F_Lights_1_Analog</t>
   </si>
 </sst>
 </file>
@@ -407,13 +434,13 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
@@ -423,6 +450,9 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="3"/>
@@ -431,7 +461,10 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1"/>
@@ -440,7 +473,10 @@
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1"/>
@@ -449,46 +485,67 @@
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>

--- a/demo/com.incquerylabs.smarthome.demorules.homeio/src/main/resources/ruletemplates/motion-template-data.xlsx
+++ b/demo/com.incquerylabs.smarthome.demorules.homeio/src/main/resources/ruletemplates/motion-template-data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>B_Motion_Detector</t>
   </si>
@@ -59,12 +59,6 @@
     <t>F_Motion_Detector</t>
   </si>
   <si>
-    <t>G_Lights_Analog</t>
-  </si>
-  <si>
-    <t>G_Motion_Detector</t>
-  </si>
-  <si>
     <t>F_Lights_2_Analog</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
   </si>
   <si>
     <t>F_Brightness_Sensor</t>
-  </si>
-  <si>
-    <t>G_Brightness_Sensor</t>
   </si>
   <si>
     <t>D_Lights_2_Analog</t>
@@ -450,7 +441,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -462,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -474,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -486,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -497,10 +488,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,7 +499,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
@@ -519,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -530,22 +521,15 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>

--- a/demo/com.incquerylabs.smarthome.demorules.homeio/src/main/resources/ruletemplates/motion-template-data.xlsx
+++ b/demo/com.incquerylabs.smarthome.demorules.homeio/src/main/resources/ruletemplates/motion-template-data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>B_Motion_Detector</t>
   </si>
@@ -84,6 +84,69 @@
   </si>
   <si>
     <t>F_Lights_1_Analog</t>
+  </si>
+  <si>
+    <t>H_Lights_Analog</t>
+  </si>
+  <si>
+    <t>H_Brightness_Sensor</t>
+  </si>
+  <si>
+    <t>H_Motion_Detector</t>
+  </si>
+  <si>
+    <t>J_Lights_Analog</t>
+  </si>
+  <si>
+    <t>J_Brightness_Sensor</t>
+  </si>
+  <si>
+    <t>J_Motion_Detector</t>
+  </si>
+  <si>
+    <t>L_Lights_Analog</t>
+  </si>
+  <si>
+    <t>L_Brightness_Sensor</t>
+  </si>
+  <si>
+    <t>L_Motion_Detector</t>
+  </si>
+  <si>
+    <t>M_Lights_Analog</t>
+  </si>
+  <si>
+    <t>M_Brightness_Sensor</t>
+  </si>
+  <si>
+    <t>M_Motion_Detector</t>
+  </si>
+  <si>
+    <t>N_Lights_1_Analog</t>
+  </si>
+  <si>
+    <t>N_Lights_2_Analog</t>
+  </si>
+  <si>
+    <t>N_Lights_3_Analog</t>
+  </si>
+  <si>
+    <t>N_Motion_Detector</t>
+  </si>
+  <si>
+    <t>N_Brightness_Sensor</t>
+  </si>
+  <si>
+    <t>O_Motion_Detector</t>
+  </si>
+  <si>
+    <t>O_Brightness_Sensor</t>
+  </si>
+  <si>
+    <t>O_Lights_Entrance_Analog</t>
+  </si>
+  <si>
+    <t>O_Lights_Garden_Analog</t>
   </si>
 </sst>
 </file>
@@ -125,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -141,6 +204,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,15 +490,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -528,48 +594,103 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -643,5 +764,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>